--- a/Forecasts/El Dorado.xlsx
+++ b/Forecasts/El Dorado.xlsx
@@ -887,7 +887,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-08-19 01:58:18"</t>
+    <t xml:space="preserve">[1] "2020-08-19 14:34:44"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/El Dorado.xlsx
+++ b/Forecasts/El Dorado.xlsx
@@ -7484,7 +7484,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:31:17"</t>
+    <t xml:space="preserve">[1] "2021-04-20 11:51:20"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
